--- a/test/data/道具2.xlsx
+++ b/test/data/道具2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>int</t>
   </si>
@@ -76,13 +76,30 @@
   </si>
   <si>
     <t>飞蝗石，可以扔向敌人</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,10 +111,20 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -132,11 +159,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,7 +453,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -451,8 +481,8 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
